--- a/code/streamlit/assets/scope.xlsx
+++ b/code/streamlit/assets/scope.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathan.bach/Documents/GitHub/Repositorys/Streamlit-Application-for-Data-Literacy/code/streamlit/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathan.bach/Documents/GitHub/Repositorys/Streamlit-Application-for-Data-Literacy-1/code/streamlit/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CA404D-6EFC-8149-B9B9-FB024E16E073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A64092-42D1-7A46-9912-57E2F6EB9492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="580" yWindow="740" windowWidth="28240" windowHeight="16760" xr2:uid="{9338AA48-EE0B-E144-A3B7-6CB307FF4D23}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>Epoche</t>
   </si>
   <si>
-    <t>2010-2020</t>
-  </si>
-  <si>
     <t>Corona</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>2022 - Heute</t>
+  </si>
+  <si>
+    <t>2010 - 2020</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,26 +466,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
